--- a/tradept/Excel/Localization/Main/english/J集市信息表_Bazzar_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市信息表_Bazzar_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311834E8-5EC5-4877-99F1-1BEA6FE94655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E3A83-A8FB-410F-B81A-89E5F46F0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="750" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -96,43 +96,43 @@
     <t>通用赫炎雇佣兵</t>
   </si>
   <si>
-    <t>Redstone Keep: Bazar de artesanos</t>
-  </si>
-  <si>
-    <t>Frost Valley: Bazar de la Rosa Blanca</t>
-  </si>
-  <si>
-    <t>Diresprings: Bazar del Desierto</t>
-  </si>
-  <si>
     <t>Fleur: Bazar de Flores</t>
   </si>
   <si>
-    <t>Punto de interés</t>
-  </si>
-  <si>
-    <t>Comerciante de habilidades</t>
-  </si>
-  <si>
-    <t>Comerciante Viajero 1</t>
-  </si>
-  <si>
-    <t>Comerciante Viajero 2</t>
-  </si>
-  <si>
-    <t>Comerciante Viajero Senior 1</t>
-  </si>
-  <si>
-    <t>Comerciante de Bestias Común</t>
-  </si>
-  <si>
-    <t>Mercenario de Rosa Blanca Común</t>
-  </si>
-  <si>
-    <t>Mercenario de Mastigure Común</t>
-  </si>
-  <si>
-    <t>Mercenario Ember Común</t>
+    <t>Redstone Keep: Bazar dos Artesãos</t>
+  </si>
+  <si>
+    <t>Vale Frost: Bazar da Rosa Branca</t>
+  </si>
+  <si>
+    <t>Diresprings: Bazar do Deserto</t>
+  </si>
+  <si>
+    <t>Ponto de interesse</t>
+  </si>
+  <si>
+    <t>Comerciante de Habilidades</t>
+  </si>
+  <si>
+    <t>Comerciante Viajante 1</t>
+  </si>
+  <si>
+    <t>Comerciante Viajante 2</t>
+  </si>
+  <si>
+    <t>Comerciante Viajante Sênior 1</t>
+  </si>
+  <si>
+    <t>Comerciante de Bestas Comuns</t>
+  </si>
+  <si>
+    <t>Mercenário Rosa Branca Comum</t>
+  </si>
+  <si>
+    <t>Mercenário Mastigure Comum</t>
+  </si>
+  <si>
+    <t>Mercenário Brasa Comum</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,10 +510,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -534,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -567,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tradept/Excel/Localization/Main/english/J集市信息表_Bazzar_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市信息表_Bazzar_hotfix.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E3A83-A8FB-410F-B81A-89E5F46F0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DC0C0-1A62-441A-9F1B-4FEB7E823FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="750" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -96,53 +85,59 @@
     <t>通用赫炎雇佣兵</t>
   </si>
   <si>
-    <t>Fleur: Bazar de Flores</t>
-  </si>
-  <si>
-    <t>Redstone Keep: Bazar dos Artesãos</t>
-  </si>
-  <si>
-    <t>Vale Frost: Bazar da Rosa Branca</t>
-  </si>
-  <si>
-    <t>Diresprings: Bazar do Deserto</t>
-  </si>
-  <si>
-    <t>Ponto de interesse</t>
-  </si>
-  <si>
-    <t>Comerciante de Habilidades</t>
-  </si>
-  <si>
-    <t>Comerciante Viajante 1</t>
-  </si>
-  <si>
-    <t>Comerciante Viajante 2</t>
-  </si>
-  <si>
-    <t>Comerciante Viajante Sênior 1</t>
-  </si>
-  <si>
-    <t>Comerciante de Bestas Comuns</t>
-  </si>
-  <si>
-    <t>Mercenário Rosa Branca Comum</t>
-  </si>
-  <si>
-    <t>Mercenário Mastigure Comum</t>
-  </si>
-  <si>
-    <t>Mercenário Brasa Comum</t>
+    <t>Ponto de Interesse</t>
+  </si>
+  <si>
+    <t>Mercador de Habilidades</t>
+  </si>
+  <si>
+    <t>Mercador Ambulante 1</t>
+  </si>
+  <si>
+    <t>Mercador Ambulante 2</t>
+  </si>
+  <si>
+    <t>Mercador Ambulante Sênior 1</t>
+  </si>
+  <si>
+    <t>Mercador de Bestas Comuns</t>
+  </si>
+  <si>
+    <t>Mercenário Comum da Rosa Branca</t>
+  </si>
+  <si>
+    <t>Mercenário Comum do Mastigure</t>
+  </si>
+  <si>
+    <t>Mercenário Comum da Brasa</t>
+  </si>
+  <si>
+    <t>Fortaleza da Pedra Vermelha: Mercado dos Artesãos</t>
+  </si>
+  <si>
+    <t>Vale do Gelo: Mercado da Rosa Branca</t>
+  </si>
+  <si>
+    <t>Fontes Sombrias: Mercado do Deserto</t>
+  </si>
+  <si>
+    <t>Fleur: Mercado das Flores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,11 +145,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,15 +176,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -211,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,44 +241,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -286,31 +306,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -338,23 +341,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,142 +352,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -509,16 +519,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,158 +541,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/J集市信息表_Bazzar_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J集市信息表_Bazzar_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DC0C0-1A62-441A-9F1B-4FEB7E823FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEC6E5C-CF50-4535-91DB-FE07A2B4D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -91,37 +91,37 @@
     <t>Mercador de Habilidades</t>
   </si>
   <si>
-    <t>Mercador Ambulante 1</t>
-  </si>
-  <si>
-    <t>Mercador Ambulante 2</t>
-  </si>
-  <si>
-    <t>Mercador Ambulante Sênior 1</t>
-  </si>
-  <si>
-    <t>Mercador de Bestas Comuns</t>
-  </si>
-  <si>
-    <t>Mercenário Comum da Rosa Branca</t>
-  </si>
-  <si>
-    <t>Mercenário Comum do Mastigure</t>
-  </si>
-  <si>
-    <t>Mercenário Comum da Brasa</t>
-  </si>
-  <si>
-    <t>Fortaleza da Pedra Vermelha: Mercado dos Artesãos</t>
-  </si>
-  <si>
-    <t>Vale do Gelo: Mercado da Rosa Branca</t>
-  </si>
-  <si>
-    <t>Fontes Sombrias: Mercado do Deserto</t>
-  </si>
-  <si>
-    <t>Fleur: Mercado das Flores</t>
+    <t>Mercador Viajante 1</t>
+  </si>
+  <si>
+    <t>Mercador Viajante 2</t>
+  </si>
+  <si>
+    <t>Bazar da Rosa Branca no Vale do Gelo</t>
+  </si>
+  <si>
+    <t>Bazar das Cem Flores em Aldeia das Flores</t>
+  </si>
+  <si>
+    <t>Bazar de Vento e Areia em Fontes Secas</t>
+  </si>
+  <si>
+    <t>Bazar dos Artesãos de Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Mercador Viajante Avançado 1</t>
+  </si>
+  <si>
+    <t>Comerciante de Bestas Comum</t>
+  </si>
+  <si>
+    <t>Mercenário da Rosa Branca</t>
+  </si>
+  <si>
+    <t>Mercenário de Mestigure</t>
+  </si>
+  <si>
+    <t>Mercenário do Fogo Ardente</t>
   </si>
 </sst>
 </file>
@@ -519,15 +519,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,8 +559,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -636,8 +636,8 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,8 +647,8 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,8 +658,8 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,8 +669,8 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,8 +680,8 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,8 +691,8 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
